--- a/Code/Results/Cases/Case_3_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.31219737336554</v>
+        <v>11.24730059805024</v>
       </c>
       <c r="C2">
-        <v>13.55026358052183</v>
+        <v>9.051239008829363</v>
       </c>
       <c r="D2">
-        <v>4.674946626554951</v>
+        <v>3.584865416155975</v>
       </c>
       <c r="F2">
-        <v>13.25316747250651</v>
+        <v>16.67961230345439</v>
       </c>
       <c r="G2">
-        <v>14.75148181478434</v>
+        <v>15.79323681549101</v>
       </c>
       <c r="H2">
-        <v>6.405709598134758</v>
+        <v>10.93808153481607</v>
       </c>
       <c r="I2">
-        <v>8.346612398542465</v>
+        <v>14.88288982655263</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.85177635023144</v>
+        <v>15.41054253696409</v>
       </c>
       <c r="O2">
-        <v>9.731826847966923</v>
+        <v>14.90385827259185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.12024972480127</v>
+        <v>10.57380790373071</v>
       </c>
       <c r="C3">
-        <v>12.81432819427105</v>
+        <v>8.68732424265783</v>
       </c>
       <c r="D3">
-        <v>4.421350058482617</v>
+        <v>3.47188645274512</v>
       </c>
       <c r="F3">
-        <v>12.80978117661903</v>
+        <v>16.6726704177993</v>
       </c>
       <c r="G3">
-        <v>14.10357923109197</v>
+        <v>15.751178480952</v>
       </c>
       <c r="H3">
-        <v>6.435495643245953</v>
+        <v>10.97772290876434</v>
       </c>
       <c r="I3">
-        <v>8.581034263403225</v>
+        <v>14.98306941406253</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.78453632967772</v>
+        <v>15.41033187572917</v>
       </c>
       <c r="O3">
-        <v>9.64043272644127</v>
+        <v>14.95657808676978</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.34561084125793</v>
+        <v>10.15944325987224</v>
       </c>
       <c r="C4">
-        <v>12.3391840527851</v>
+        <v>8.454693562102944</v>
       </c>
       <c r="D4">
-        <v>4.257519939067786</v>
+        <v>3.399911520074788</v>
       </c>
       <c r="F4">
-        <v>12.54453104288512</v>
+        <v>16.67426726530837</v>
       </c>
       <c r="G4">
-        <v>13.71398693490676</v>
+        <v>15.73364501509494</v>
       </c>
       <c r="H4">
-        <v>6.458888299426592</v>
+        <v>11.00407423107523</v>
       </c>
       <c r="I4">
-        <v>8.732857577726604</v>
+        <v>15.04807860461933</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.74621813089831</v>
+        <v>15.41179164254423</v>
       </c>
       <c r="O4">
-        <v>9.595482656125974</v>
+        <v>14.99313633327462</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.01921996106207</v>
+        <v>9.988322807296415</v>
       </c>
       <c r="C5">
-        <v>12.13981470454</v>
+        <v>8.357682477949993</v>
       </c>
       <c r="D5">
-        <v>4.188745865307161</v>
+        <v>3.369952419810796</v>
       </c>
       <c r="F5">
-        <v>12.4383651698066</v>
+        <v>16.67639140032014</v>
       </c>
       <c r="G5">
-        <v>13.5575904236183</v>
+        <v>15.72858848757138</v>
       </c>
       <c r="H5">
-        <v>6.469656124681361</v>
+        <v>11.0153180435031</v>
       </c>
       <c r="I5">
-        <v>8.796634771069616</v>
+        <v>15.07545068265967</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.73134715183611</v>
+        <v>15.41278782279457</v>
       </c>
       <c r="O5">
-        <v>9.579899775929809</v>
+        <v>15.00908360703765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.96437705808338</v>
+        <v>9.959610190633811</v>
       </c>
       <c r="C6">
-        <v>12.10636631488728</v>
+        <v>8.341443358283204</v>
       </c>
       <c r="D6">
-        <v>4.177205486728638</v>
+        <v>3.364940583563305</v>
       </c>
       <c r="F6">
-        <v>12.42085759839602</v>
+        <v>16.67683307553221</v>
       </c>
       <c r="G6">
-        <v>13.53177267941593</v>
+        <v>15.72787503059339</v>
       </c>
       <c r="H6">
-        <v>6.471517314801502</v>
+        <v>11.01721558707891</v>
       </c>
       <c r="I6">
-        <v>8.80733814138717</v>
+        <v>15.08004898142012</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.72892269635997</v>
+        <v>15.41297752478997</v>
       </c>
       <c r="O6">
-        <v>9.577475079816995</v>
+        <v>15.01179491667151</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.34125235844598</v>
+        <v>10.15715554917852</v>
       </c>
       <c r="C7">
-        <v>12.3365183841835</v>
+        <v>8.453394055306973</v>
       </c>
       <c r="D7">
-        <v>4.25660052925671</v>
+        <v>3.399509990065747</v>
       </c>
       <c r="F7">
-        <v>12.54309123446042</v>
+        <v>16.67428994733257</v>
       </c>
       <c r="G7">
-        <v>13.71186773729645</v>
+        <v>15.73356836258142</v>
       </c>
       <c r="H7">
-        <v>6.459028580356553</v>
+        <v>11.00422382302392</v>
       </c>
       <c r="I7">
-        <v>8.733710066508225</v>
+        <v>15.04844418891358</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.74601456659669</v>
+        <v>15.41180345026411</v>
       </c>
       <c r="O7">
-        <v>9.595261531638133</v>
+        <v>14.99334715936792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.9101095075687</v>
+        <v>11.02020395504911</v>
       </c>
       <c r="C8">
-        <v>13.30140207328334</v>
+        <v>8.927722265186668</v>
       </c>
       <c r="D8">
-        <v>4.589207890340128</v>
+        <v>3.546466063578305</v>
       </c>
       <c r="F8">
-        <v>13.09893743486515</v>
+        <v>16.67600313144897</v>
       </c>
       <c r="G8">
-        <v>14.52655303905147</v>
+        <v>15.77701785528259</v>
       </c>
       <c r="H8">
-        <v>6.414891257559151</v>
+        <v>10.95133222256899</v>
       </c>
       <c r="I8">
-        <v>8.425755553272122</v>
+        <v>14.91670597069917</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.82797494573645</v>
+        <v>15.41014113095308</v>
       </c>
       <c r="O8">
-        <v>9.697955763571793</v>
+        <v>14.92116470225475</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.64641817804802</v>
+        <v>12.56323696720668</v>
       </c>
       <c r="C9">
-        <v>15.00521369554715</v>
+        <v>9.781334341331947</v>
       </c>
       <c r="D9">
-        <v>5.176029266191883</v>
+        <v>3.812943772417702</v>
       </c>
       <c r="F9">
-        <v>14.23718261995523</v>
+        <v>16.7257850659893</v>
       </c>
       <c r="G9">
-        <v>16.17716439481655</v>
+        <v>15.92764833652888</v>
       </c>
       <c r="H9">
-        <v>6.371023704348297</v>
+        <v>10.86358602710788</v>
       </c>
       <c r="I9">
-        <v>7.888399031979107</v>
+        <v>14.68610052173628</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.01232406847028</v>
+        <v>15.41941319804421</v>
       </c>
       <c r="O9">
-        <v>9.990656020381111</v>
+        <v>14.81300008004449</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.44929750261652</v>
+        <v>13.57617667244165</v>
       </c>
       <c r="C10">
-        <v>16.13866630888999</v>
+        <v>10.35770150973811</v>
       </c>
       <c r="D10">
-        <v>5.566352102383745</v>
+        <v>3.994287171559566</v>
       </c>
       <c r="F10">
-        <v>15.09369590633217</v>
+        <v>16.7904738976475</v>
       </c>
       <c r="G10">
-        <v>17.40754312141967</v>
+        <v>16.07745537014242</v>
       </c>
       <c r="H10">
-        <v>6.367836390856763</v>
+        <v>10.80887702460212</v>
       </c>
       <c r="I10">
-        <v>7.540662339902616</v>
+        <v>14.53354439140509</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.16225631853493</v>
+        <v>15.43375938014443</v>
       </c>
       <c r="O10">
-        <v>10.2642809153836</v>
+        <v>14.7540830456256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.22461110404285</v>
+        <v>14.01069014424744</v>
       </c>
       <c r="C11">
-        <v>16.62816619092299</v>
+        <v>10.60820485699964</v>
       </c>
       <c r="D11">
-        <v>5.734948499091672</v>
+        <v>4.073439846326799</v>
       </c>
       <c r="F11">
-        <v>15.48602565512639</v>
+        <v>16.82593627506844</v>
       </c>
       <c r="G11">
-        <v>17.96858797342441</v>
+        <v>16.15386675906674</v>
       </c>
       <c r="H11">
-        <v>6.373341776119497</v>
+        <v>10.78611158307002</v>
       </c>
       <c r="I11">
-        <v>7.394458531546813</v>
+        <v>14.46779898174407</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.23362091797489</v>
+        <v>15.44189763650564</v>
       </c>
       <c r="O11">
-        <v>10.40187466154465</v>
+        <v>14.73178080206518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.5117798864917</v>
+        <v>14.17144867746039</v>
       </c>
       <c r="C12">
-        <v>16.80974967811625</v>
+        <v>10.70133772989664</v>
       </c>
       <c r="D12">
-        <v>5.797497597785778</v>
+        <v>4.102917542720612</v>
       </c>
       <c r="F12">
-        <v>15.63485438743815</v>
+        <v>16.84022444805199</v>
       </c>
       <c r="G12">
-        <v>18.18106445673331</v>
+        <v>16.18396476664281</v>
       </c>
       <c r="H12">
-        <v>6.37647961270435</v>
+        <v>10.77779641052206</v>
       </c>
       <c r="I12">
-        <v>7.340995664280436</v>
+        <v>14.44342795087289</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.26109900470357</v>
+        <v>15.4452089806005</v>
       </c>
       <c r="O12">
-        <v>10.45588231627296</v>
+        <v>14.7239852670318</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.45021834918506</v>
+        <v>14.13699468621881</v>
       </c>
       <c r="C13">
-        <v>16.77081080741433</v>
+        <v>10.68135738575153</v>
       </c>
       <c r="D13">
-        <v>5.784084175359465</v>
+        <v>4.096591262778492</v>
       </c>
       <c r="F13">
-        <v>15.60279164109489</v>
+        <v>16.83710916594864</v>
       </c>
       <c r="G13">
-        <v>18.13530531135547</v>
+        <v>16.17743135440377</v>
       </c>
       <c r="H13">
-        <v>6.375756152420108</v>
+        <v>10.7795736323879</v>
       </c>
       <c r="I13">
-        <v>7.35242217098225</v>
+        <v>14.44865332335759</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.25516093229136</v>
+        <v>15.44448565038713</v>
       </c>
       <c r="O13">
-        <v>10.44416594529226</v>
+        <v>14.72563523095961</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.24836529549177</v>
+        <v>14.02399165526276</v>
       </c>
       <c r="C14">
-        <v>16.6431810264762</v>
+        <v>10.61590181298404</v>
       </c>
       <c r="D14">
-        <v>5.740120422144146</v>
+        <v>4.075875009435697</v>
       </c>
       <c r="F14">
-        <v>15.49826529889231</v>
+        <v>16.8270946031165</v>
       </c>
       <c r="G14">
-        <v>17.98606899298532</v>
+        <v>16.15631979685303</v>
       </c>
       <c r="H14">
-        <v>6.373578521990093</v>
+        <v>10.78542136135134</v>
       </c>
       <c r="I14">
-        <v>7.390020890426429</v>
+        <v>14.46578343367857</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.23587246447473</v>
+        <v>15.44216547522794</v>
       </c>
       <c r="O14">
-        <v>10.40627967997085</v>
+        <v>14.73112641968033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1238883633087</v>
+        <v>13.95428142927896</v>
       </c>
       <c r="C15">
-        <v>16.56451133719016</v>
+        <v>10.57558218219637</v>
       </c>
       <c r="D15">
-        <v>5.713022621459202</v>
+        <v>4.063120730604474</v>
       </c>
       <c r="F15">
-        <v>15.4342705463273</v>
+        <v>16.82107202827629</v>
       </c>
       <c r="G15">
-        <v>17.89465561126783</v>
+        <v>16.14353895669618</v>
       </c>
       <c r="H15">
-        <v>6.372383360537663</v>
+        <v>10.78904307695936</v>
       </c>
       <c r="I15">
-        <v>7.413304532535945</v>
+        <v>14.47634453573478</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.22411680765696</v>
+        <v>15.44077412837013</v>
       </c>
       <c r="O15">
-        <v>10.38332154959924</v>
+        <v>14.73457463915709</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.39772852010798</v>
+        <v>13.54725102385874</v>
       </c>
       <c r="C16">
-        <v>16.10614856173461</v>
+        <v>10.34109117793176</v>
       </c>
       <c r="D16">
-        <v>5.555153007577415</v>
+        <v>3.989045777816287</v>
       </c>
       <c r="F16">
-        <v>15.06809939135361</v>
+        <v>16.78827709672777</v>
       </c>
       <c r="G16">
-        <v>17.37088908600866</v>
+        <v>16.07262587524058</v>
       </c>
       <c r="H16">
-        <v>6.367621094741061</v>
+        <v>10.81040753943127</v>
       </c>
       <c r="I16">
-        <v>7.550472885140914</v>
+        <v>14.5379145184993</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.15765601923889</v>
+        <v>15.43325977483831</v>
       </c>
       <c r="O16">
-        <v>10.25555453270416</v>
+        <v>14.75563133745135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.94078451605623</v>
+        <v>13.29081686357485</v>
       </c>
       <c r="C17">
-        <v>15.818249051373</v>
+        <v>10.1942093242255</v>
       </c>
       <c r="D17">
-        <v>5.456004360124179</v>
+        <v>3.942735966001529</v>
       </c>
       <c r="F17">
-        <v>14.8440615938269</v>
+        <v>16.76969862595015</v>
       </c>
       <c r="G17">
-        <v>17.04978627481003</v>
+        <v>16.03122231026193</v>
       </c>
       <c r="H17">
-        <v>6.366518829854032</v>
+        <v>10.82405776737314</v>
       </c>
       <c r="I17">
-        <v>7.637809236828599</v>
+        <v>14.57662135206432</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.11769349079918</v>
+        <v>15.42906128455169</v>
       </c>
       <c r="O17">
-        <v>10.18054920165876</v>
+        <v>14.76970344570223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.67374160866065</v>
+        <v>13.14084925301414</v>
       </c>
       <c r="C18">
-        <v>15.65019973010422</v>
+        <v>10.10862882608225</v>
       </c>
       <c r="D18">
-        <v>5.398133150822996</v>
+        <v>3.915786069350789</v>
       </c>
       <c r="F18">
-        <v>14.71546146073124</v>
+        <v>16.7595814372188</v>
       </c>
       <c r="G18">
-        <v>16.86523077362307</v>
+        <v>16.00818761885961</v>
       </c>
       <c r="H18">
-        <v>6.366536364234217</v>
+        <v>10.83210871851697</v>
       </c>
       <c r="I18">
-        <v>7.689158585744408</v>
+        <v>14.59922834475769</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.09500555639649</v>
+        <v>15.42679830362652</v>
       </c>
       <c r="O18">
-        <v>10.13864266543919</v>
+        <v>14.7782207033091</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.58260002916748</v>
+        <v>13.08964814997851</v>
       </c>
       <c r="C19">
-        <v>15.59288000696243</v>
+        <v>10.07946570297922</v>
       </c>
       <c r="D19">
-        <v>5.378394298578915</v>
+        <v>3.906607910626596</v>
       </c>
       <c r="F19">
-        <v>14.67196849787788</v>
+        <v>16.75625383295963</v>
       </c>
       <c r="G19">
-        <v>16.80277226888512</v>
+        <v>16.00052308069538</v>
       </c>
       <c r="H19">
-        <v>6.366652580731665</v>
+        <v>10.8348689166036</v>
       </c>
       <c r="I19">
-        <v>7.706731216451004</v>
+        <v>14.60694174064905</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.08737490989405</v>
+        <v>15.42605824992598</v>
       </c>
       <c r="O19">
-        <v>10.12466519348061</v>
+        <v>14.78117712107007</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.9898636954815</v>
+        <v>13.31837074977429</v>
       </c>
       <c r="C20">
-        <v>15.84915095768505</v>
+        <v>10.20995914045576</v>
       </c>
       <c r="D20">
-        <v>5.466646255570572</v>
+        <v>3.947698309287296</v>
       </c>
       <c r="F20">
-        <v>14.86788480344257</v>
+        <v>16.77161753897673</v>
       </c>
       <c r="G20">
-        <v>17.08395565617491</v>
+        <v>16.03554928542177</v>
       </c>
       <c r="H20">
-        <v>6.366568352129259</v>
+        <v>10.82258400555484</v>
       </c>
       <c r="I20">
-        <v>7.628395444121799</v>
+        <v>14.57246535693643</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.12191678736378</v>
+        <v>15.42949251809676</v>
       </c>
       <c r="O20">
-        <v>10.18840572320536</v>
+        <v>14.76816160893727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.30782863030694</v>
+        <v>14.057286044634</v>
       </c>
       <c r="C21">
-        <v>16.68077170877391</v>
+        <v>10.63517491475619</v>
       </c>
       <c r="D21">
-        <v>5.753068812382248</v>
+        <v>4.081973440648522</v>
       </c>
       <c r="F21">
-        <v>15.52896103415152</v>
+        <v>16.83001287576494</v>
       </c>
       <c r="G21">
-        <v>18.02990396055536</v>
+        <v>16.16248943872183</v>
       </c>
       <c r="H21">
-        <v>6.374189146388212</v>
+        <v>10.783695443831</v>
       </c>
       <c r="I21">
-        <v>7.378924084196067</v>
+        <v>14.46073764732469</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.24152564269273</v>
+        <v>15.44284075505649</v>
       </c>
       <c r="O21">
-        <v>10.41735603028214</v>
+        <v>14.72949586674036</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.13175467764907</v>
+        <v>14.518164686619</v>
       </c>
       <c r="C22">
-        <v>17.20224924737323</v>
+        <v>10.90299325252001</v>
       </c>
       <c r="D22">
-        <v>5.932715177405554</v>
+        <v>4.166834867392744</v>
       </c>
       <c r="F22">
-        <v>15.96249256439057</v>
+        <v>16.87318152379397</v>
       </c>
       <c r="G22">
-        <v>18.66829873983275</v>
+        <v>16.25221497758075</v>
       </c>
       <c r="H22">
-        <v>6.385331895804264</v>
+        <v>10.7600610390462</v>
       </c>
       <c r="I22">
-        <v>7.227064409621652</v>
+        <v>14.39077920414458</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.32234199010555</v>
+        <v>15.4529015597162</v>
       </c>
       <c r="O22">
-        <v>10.57808762032738</v>
+        <v>14.70801445675635</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69542745532488</v>
+        <v>14.2742024574928</v>
       </c>
       <c r="C23">
-        <v>16.92594871990106</v>
+        <v>10.76098985722705</v>
       </c>
       <c r="D23">
-        <v>5.837526335072311</v>
+        <v>4.121812191725577</v>
       </c>
       <c r="F23">
-        <v>15.73101065274723</v>
+        <v>16.84968693133644</v>
       </c>
       <c r="G23">
-        <v>18.31824672636787</v>
+        <v>16.20371726385156</v>
       </c>
       <c r="H23">
-        <v>6.378803663151766</v>
+        <v>10.77251200327616</v>
       </c>
       <c r="I23">
-        <v>7.307025653076411</v>
+        <v>14.42783713999382</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.27896699412341</v>
+        <v>15.44741035509898</v>
       </c>
       <c r="O23">
-        <v>10.49128310005699</v>
+        <v>14.71913194137468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.96768851716166</v>
+        <v>13.30592154968094</v>
       </c>
       <c r="C24">
-        <v>15.83518809068265</v>
+        <v>10.20284218386042</v>
       </c>
       <c r="D24">
-        <v>5.461837761945297</v>
+        <v>3.945455847416567</v>
       </c>
       <c r="F24">
-        <v>14.85711369087797</v>
+        <v>16.77074824153017</v>
       </c>
       <c r="G24">
-        <v>17.06850750729473</v>
+        <v>16.03359066342212</v>
       </c>
       <c r="H24">
-        <v>6.366543938654415</v>
+        <v>10.82324966019024</v>
       </c>
       <c r="I24">
-        <v>7.632647886721029</v>
+        <v>14.57434317990651</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.12000654083758</v>
+        <v>15.42929708755401</v>
       </c>
       <c r="O24">
-        <v>10.18485000667315</v>
+        <v>14.76885734344384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.94264705696381</v>
+        <v>12.16695921647151</v>
       </c>
       <c r="C25">
-        <v>14.56487592886931</v>
+        <v>9.55906913019013</v>
       </c>
       <c r="D25">
-        <v>5.024396583948631</v>
+        <v>3.743311530967234</v>
       </c>
       <c r="F25">
-        <v>13.92507534484495</v>
+        <v>16.70736121083802</v>
       </c>
       <c r="G25">
-        <v>15.72656839867815</v>
+        <v>15.87995654652285</v>
       </c>
       <c r="H25">
-        <v>6.378010454934311</v>
+        <v>10.88561148933628</v>
       </c>
       <c r="I25">
-        <v>8.026035938483576</v>
+        <v>14.74552047421583</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.9599123158929</v>
+        <v>15.41557381106028</v>
       </c>
       <c r="O25">
-        <v>9.901353646490572</v>
+        <v>14.83866595189259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.24730059805024</v>
+        <v>19.3121973733655</v>
       </c>
       <c r="C2">
-        <v>9.051239008829363</v>
+        <v>13.55026358052174</v>
       </c>
       <c r="D2">
-        <v>3.584865416155975</v>
+        <v>4.674946626555034</v>
       </c>
       <c r="F2">
-        <v>16.67961230345439</v>
+        <v>13.25316747250657</v>
       </c>
       <c r="G2">
-        <v>15.79323681549101</v>
+        <v>14.75148181478443</v>
       </c>
       <c r="H2">
-        <v>10.93808153481607</v>
+        <v>6.405709598134796</v>
       </c>
       <c r="I2">
-        <v>14.88288982655263</v>
+        <v>8.346612398542558</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.41054253696409</v>
+        <v>11.85177635023148</v>
       </c>
       <c r="O2">
-        <v>14.90385827259185</v>
+        <v>9.731826847967024</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.57380790373071</v>
+        <v>18.12024972480126</v>
       </c>
       <c r="C3">
-        <v>8.68732424265783</v>
+        <v>12.81432819427105</v>
       </c>
       <c r="D3">
-        <v>3.47188645274512</v>
+        <v>4.421350058482617</v>
       </c>
       <c r="F3">
-        <v>16.6726704177993</v>
+        <v>12.80978117661907</v>
       </c>
       <c r="G3">
-        <v>15.751178480952</v>
+        <v>14.10357923109208</v>
       </c>
       <c r="H3">
-        <v>10.97772290876434</v>
+        <v>6.435495643246004</v>
       </c>
       <c r="I3">
-        <v>14.98306941406253</v>
+        <v>8.581034263403293</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.41033187572917</v>
+        <v>11.78453632967772</v>
       </c>
       <c r="O3">
-        <v>14.95657808676978</v>
+        <v>9.640432726441304</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.15944325987224</v>
+        <v>17.3456108412579</v>
       </c>
       <c r="C4">
-        <v>8.454693562102944</v>
+        <v>12.33918405278503</v>
       </c>
       <c r="D4">
-        <v>3.399911520074788</v>
+        <v>4.2575199390678</v>
       </c>
       <c r="F4">
-        <v>16.67426726530837</v>
+        <v>12.54453104288519</v>
       </c>
       <c r="G4">
-        <v>15.73364501509494</v>
+        <v>13.71398693490675</v>
       </c>
       <c r="H4">
-        <v>11.00407423107523</v>
+        <v>6.458888299426643</v>
       </c>
       <c r="I4">
-        <v>15.04807860461933</v>
+        <v>8.732857577726632</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.41179164254423</v>
+        <v>11.74621813089831</v>
       </c>
       <c r="O4">
-        <v>14.99313633327462</v>
+        <v>9.595482656126039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.988322807296415</v>
+        <v>17.01921996106206</v>
       </c>
       <c r="C5">
-        <v>8.357682477949993</v>
+        <v>12.13981470454005</v>
       </c>
       <c r="D5">
-        <v>3.369952419810796</v>
+        <v>4.188745865307164</v>
       </c>
       <c r="F5">
-        <v>16.67639140032014</v>
+        <v>12.43836516980652</v>
       </c>
       <c r="G5">
-        <v>15.72858848757138</v>
+        <v>13.55759042361828</v>
       </c>
       <c r="H5">
-        <v>11.0153180435031</v>
+        <v>6.469656124681245</v>
       </c>
       <c r="I5">
-        <v>15.07545068265967</v>
+        <v>8.796634771069588</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.41278782279457</v>
+        <v>11.73134715183608</v>
       </c>
       <c r="O5">
-        <v>15.00908360703765</v>
+        <v>9.579899775929714</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.959610190633811</v>
+        <v>16.96437705808333</v>
       </c>
       <c r="C6">
-        <v>8.341443358283204</v>
+        <v>12.10636631488733</v>
       </c>
       <c r="D6">
-        <v>3.364940583563305</v>
+        <v>4.177205486728586</v>
       </c>
       <c r="F6">
-        <v>16.67683307553221</v>
+        <v>12.42085759839604</v>
       </c>
       <c r="G6">
-        <v>15.72787503059339</v>
+        <v>13.53177267941591</v>
       </c>
       <c r="H6">
-        <v>11.01721558707891</v>
+        <v>6.47151731480156</v>
       </c>
       <c r="I6">
-        <v>15.08004898142012</v>
+        <v>8.807338141387264</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.41297752478997</v>
+        <v>11.72892269635997</v>
       </c>
       <c r="O6">
-        <v>15.01179491667151</v>
+        <v>9.57747507981702</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.15715554917852</v>
+        <v>17.341252358446</v>
       </c>
       <c r="C7">
-        <v>8.453394055306973</v>
+        <v>12.33651838418353</v>
       </c>
       <c r="D7">
-        <v>3.399509990065747</v>
+        <v>4.256600529256689</v>
       </c>
       <c r="F7">
-        <v>16.67428994733257</v>
+        <v>12.54309123446032</v>
       </c>
       <c r="G7">
-        <v>15.73356836258142</v>
+        <v>13.71186773729636</v>
       </c>
       <c r="H7">
-        <v>11.00422382302392</v>
+        <v>6.459028580356499</v>
       </c>
       <c r="I7">
-        <v>15.04844418891358</v>
+        <v>8.733710066508136</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.41180345026411</v>
+        <v>11.74601456659666</v>
       </c>
       <c r="O7">
-        <v>14.99334715936792</v>
+        <v>9.59526153163802</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.02020395504911</v>
+        <v>18.91010950756869</v>
       </c>
       <c r="C8">
-        <v>8.927722265186668</v>
+        <v>13.30140207328333</v>
       </c>
       <c r="D8">
-        <v>3.546466063578305</v>
+        <v>4.589207890340191</v>
       </c>
       <c r="F8">
-        <v>16.67600313144897</v>
+        <v>13.09893743486509</v>
       </c>
       <c r="G8">
-        <v>15.77701785528259</v>
+        <v>14.52655303905144</v>
       </c>
       <c r="H8">
-        <v>10.95133222256899</v>
+        <v>6.414891257559098</v>
       </c>
       <c r="I8">
-        <v>14.91670597069917</v>
+        <v>8.42575555327206</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.41014113095308</v>
+        <v>11.82797494573642</v>
       </c>
       <c r="O8">
-        <v>14.92116470225475</v>
+        <v>9.697955763571748</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.56323696720668</v>
+        <v>21.64641817804801</v>
       </c>
       <c r="C9">
-        <v>9.781334341331947</v>
+        <v>15.00521369554723</v>
       </c>
       <c r="D9">
-        <v>3.812943772417702</v>
+        <v>5.176029266191874</v>
       </c>
       <c r="F9">
-        <v>16.7257850659893</v>
+        <v>14.23718261995526</v>
       </c>
       <c r="G9">
-        <v>15.92764833652888</v>
+        <v>16.17716439481661</v>
       </c>
       <c r="H9">
-        <v>10.86358602710788</v>
+        <v>6.371023704348361</v>
       </c>
       <c r="I9">
-        <v>14.68610052173628</v>
+        <v>7.888399031979203</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.41941319804421</v>
+        <v>12.01232406847031</v>
       </c>
       <c r="O9">
-        <v>14.81300008004449</v>
+        <v>9.990656020381158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.57617667244165</v>
+        <v>23.44929750261647</v>
       </c>
       <c r="C10">
-        <v>10.35770150973811</v>
+        <v>16.13866630889007</v>
       </c>
       <c r="D10">
-        <v>3.994287171559566</v>
+        <v>5.566352102383615</v>
       </c>
       <c r="F10">
-        <v>16.7904738976475</v>
+        <v>15.09369590633222</v>
       </c>
       <c r="G10">
-        <v>16.07745537014242</v>
+        <v>17.40754312141974</v>
       </c>
       <c r="H10">
-        <v>10.80887702460212</v>
+        <v>6.367836390856779</v>
       </c>
       <c r="I10">
-        <v>14.53354439140509</v>
+        <v>7.540662339902693</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.43375938014443</v>
+        <v>12.16225631853491</v>
       </c>
       <c r="O10">
-        <v>14.7540830456256</v>
+        <v>10.26428091538361</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.01069014424744</v>
+        <v>24.22461110404288</v>
       </c>
       <c r="C11">
-        <v>10.60820485699964</v>
+        <v>16.62816619092284</v>
       </c>
       <c r="D11">
-        <v>4.073439846326799</v>
+        <v>5.734948499091681</v>
       </c>
       <c r="F11">
-        <v>16.82593627506844</v>
+        <v>15.48602565512644</v>
       </c>
       <c r="G11">
-        <v>16.15386675906674</v>
+        <v>17.96858797342445</v>
       </c>
       <c r="H11">
-        <v>10.78611158307002</v>
+        <v>6.373341776119503</v>
       </c>
       <c r="I11">
-        <v>14.46779898174407</v>
+        <v>7.394458531546877</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.44189763650564</v>
+        <v>12.23362091797491</v>
       </c>
       <c r="O11">
-        <v>14.73178080206518</v>
+        <v>10.40187466154469</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.17144867746039</v>
+        <v>24.51177988649168</v>
       </c>
       <c r="C12">
-        <v>10.70133772989664</v>
+        <v>16.80974967811632</v>
       </c>
       <c r="D12">
-        <v>4.102917542720612</v>
+        <v>5.797497597785808</v>
       </c>
       <c r="F12">
-        <v>16.84022444805199</v>
+        <v>15.63485438743812</v>
       </c>
       <c r="G12">
-        <v>16.18396476664281</v>
+        <v>18.18106445673331</v>
       </c>
       <c r="H12">
-        <v>10.77779641052206</v>
+        <v>6.376479612704304</v>
       </c>
       <c r="I12">
-        <v>14.44342795087289</v>
+        <v>7.340995664280463</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.4452089806005</v>
+        <v>12.26109900470357</v>
       </c>
       <c r="O12">
-        <v>14.7239852670318</v>
+        <v>10.45588231627296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13699468621881</v>
+        <v>24.45021834918511</v>
       </c>
       <c r="C13">
-        <v>10.68135738575153</v>
+        <v>16.77081080741433</v>
       </c>
       <c r="D13">
-        <v>4.096591262778492</v>
+        <v>5.784084175359511</v>
       </c>
       <c r="F13">
-        <v>16.83710916594864</v>
+        <v>15.6027916410949</v>
       </c>
       <c r="G13">
-        <v>16.17743135440377</v>
+        <v>18.13530531135555</v>
       </c>
       <c r="H13">
-        <v>10.7795736323879</v>
+        <v>6.375756152420108</v>
       </c>
       <c r="I13">
-        <v>14.44865332335759</v>
+        <v>7.352422170982237</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.44448565038713</v>
+        <v>12.25516093229135</v>
       </c>
       <c r="O13">
-        <v>14.72563523095961</v>
+        <v>10.44416594529226</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.02399165526276</v>
+        <v>24.2483652954918</v>
       </c>
       <c r="C14">
-        <v>10.61590181298404</v>
+        <v>16.64318102647617</v>
       </c>
       <c r="D14">
-        <v>4.075875009435697</v>
+        <v>5.740120422144123</v>
       </c>
       <c r="F14">
-        <v>16.8270946031165</v>
+        <v>15.49826529889229</v>
       </c>
       <c r="G14">
-        <v>16.15631979685303</v>
+        <v>17.98606899298531</v>
       </c>
       <c r="H14">
-        <v>10.78542136135134</v>
+        <v>6.373578521990011</v>
       </c>
       <c r="I14">
-        <v>14.46578343367857</v>
+        <v>7.390020890426352</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.44216547522794</v>
+        <v>12.2358724644747</v>
       </c>
       <c r="O14">
-        <v>14.73112641968033</v>
+        <v>10.40627967997082</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.95428142927896</v>
+        <v>24.12388836330873</v>
       </c>
       <c r="C15">
-        <v>10.57558218219637</v>
+        <v>16.56451133719013</v>
       </c>
       <c r="D15">
-        <v>4.063120730604474</v>
+        <v>5.713022621459208</v>
       </c>
       <c r="F15">
-        <v>16.82107202827629</v>
+        <v>15.43427054632731</v>
       </c>
       <c r="G15">
-        <v>16.14353895669618</v>
+        <v>17.89465561126785</v>
       </c>
       <c r="H15">
-        <v>10.78904307695936</v>
+        <v>6.372383360537668</v>
       </c>
       <c r="I15">
-        <v>14.47634453573478</v>
+        <v>7.413304532535903</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.44077412837013</v>
+        <v>12.22411680765695</v>
       </c>
       <c r="O15">
-        <v>14.73457463915709</v>
+        <v>10.38332154959924</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.54725102385874</v>
+        <v>23.397728520108</v>
       </c>
       <c r="C16">
-        <v>10.34109117793176</v>
+        <v>16.10614856173465</v>
       </c>
       <c r="D16">
-        <v>3.989045777816287</v>
+        <v>5.555153007577421</v>
       </c>
       <c r="F16">
-        <v>16.78827709672777</v>
+        <v>15.06809939135364</v>
       </c>
       <c r="G16">
-        <v>16.07262587524058</v>
+        <v>17.37088908600868</v>
       </c>
       <c r="H16">
-        <v>10.81040753943127</v>
+        <v>6.367621094741073</v>
       </c>
       <c r="I16">
-        <v>14.5379145184993</v>
+        <v>7.550472885140922</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.43325977483831</v>
+        <v>12.15765601923889</v>
       </c>
       <c r="O16">
-        <v>14.75563133745135</v>
+        <v>10.25555453270418</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.29081686357485</v>
+        <v>22.94078451605625</v>
       </c>
       <c r="C17">
-        <v>10.1942093242255</v>
+        <v>15.81824905137278</v>
       </c>
       <c r="D17">
-        <v>3.942735966001529</v>
+        <v>5.456004360124302</v>
       </c>
       <c r="F17">
-        <v>16.76969862595015</v>
+        <v>14.84406159382693</v>
       </c>
       <c r="G17">
-        <v>16.03122231026193</v>
+        <v>17.04978627481002</v>
       </c>
       <c r="H17">
-        <v>10.82405776737314</v>
+        <v>6.366518829854015</v>
       </c>
       <c r="I17">
-        <v>14.57662135206432</v>
+        <v>7.637809236828659</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.42906128455169</v>
+        <v>12.11769349079922</v>
       </c>
       <c r="O17">
-        <v>14.76970344570223</v>
+        <v>10.18054920165882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.14084925301414</v>
+        <v>22.67374160866061</v>
       </c>
       <c r="C18">
-        <v>10.10862882608225</v>
+        <v>15.65019973010413</v>
       </c>
       <c r="D18">
-        <v>3.915786069350789</v>
+        <v>5.398133150823022</v>
       </c>
       <c r="F18">
-        <v>16.7595814372188</v>
+        <v>14.71546146073129</v>
       </c>
       <c r="G18">
-        <v>16.00818761885961</v>
+        <v>16.86523077362311</v>
       </c>
       <c r="H18">
-        <v>10.83210871851697</v>
+        <v>6.366536364234316</v>
       </c>
       <c r="I18">
-        <v>14.59922834475769</v>
+        <v>7.689158585744478</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.42679830362652</v>
+        <v>12.09500555639648</v>
       </c>
       <c r="O18">
-        <v>14.7782207033091</v>
+        <v>10.13864266543925</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.08964814997851</v>
+        <v>22.58260002916745</v>
       </c>
       <c r="C19">
-        <v>10.07946570297922</v>
+        <v>15.59288000696241</v>
       </c>
       <c r="D19">
-        <v>3.906607910626596</v>
+        <v>5.378394298578941</v>
       </c>
       <c r="F19">
-        <v>16.75625383295963</v>
+        <v>14.67196849787791</v>
       </c>
       <c r="G19">
-        <v>16.00052308069538</v>
+        <v>16.80277226888516</v>
       </c>
       <c r="H19">
-        <v>10.8348689166036</v>
+        <v>6.366652580731716</v>
       </c>
       <c r="I19">
-        <v>14.60694174064905</v>
+        <v>7.706731216451103</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.42605824992598</v>
+        <v>12.08737490989406</v>
       </c>
       <c r="O19">
-        <v>14.78117712107007</v>
+        <v>10.12466519348067</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.31837074977429</v>
+        <v>22.98986369548154</v>
       </c>
       <c r="C20">
-        <v>10.20995914045576</v>
+        <v>15.84915095768507</v>
       </c>
       <c r="D20">
-        <v>3.947698309287296</v>
+        <v>5.466646255570557</v>
       </c>
       <c r="F20">
-        <v>16.77161753897673</v>
+        <v>14.86788480344262</v>
       </c>
       <c r="G20">
-        <v>16.03554928542177</v>
+        <v>17.08395565617492</v>
       </c>
       <c r="H20">
-        <v>10.82258400555484</v>
+        <v>6.366568352129259</v>
       </c>
       <c r="I20">
-        <v>14.57246535693643</v>
+        <v>7.628395444121981</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.42949251809676</v>
+        <v>12.1219167873639</v>
       </c>
       <c r="O20">
-        <v>14.76816160893727</v>
+        <v>10.18840572320542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.057286044634</v>
+        <v>24.30782863030694</v>
       </c>
       <c r="C21">
-        <v>10.63517491475619</v>
+        <v>16.68077170877387</v>
       </c>
       <c r="D21">
-        <v>4.081973440648522</v>
+        <v>5.753068812382318</v>
       </c>
       <c r="F21">
-        <v>16.83001287576494</v>
+        <v>15.52896103415152</v>
       </c>
       <c r="G21">
-        <v>16.16248943872183</v>
+        <v>18.0299039605554</v>
       </c>
       <c r="H21">
-        <v>10.783695443831</v>
+        <v>6.374189146388217</v>
       </c>
       <c r="I21">
-        <v>14.46073764732469</v>
+        <v>7.378924084196084</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.44284075505649</v>
+        <v>12.24152564269272</v>
       </c>
       <c r="O21">
-        <v>14.72949586674036</v>
+        <v>10.41735603028215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.518164686619</v>
+        <v>25.131754677649</v>
       </c>
       <c r="C22">
-        <v>10.90299325252001</v>
+        <v>17.2022492473733</v>
       </c>
       <c r="D22">
-        <v>4.166834867392744</v>
+        <v>5.932715177405584</v>
       </c>
       <c r="F22">
-        <v>16.87318152379397</v>
+        <v>15.96249256439057</v>
       </c>
       <c r="G22">
-        <v>16.25221497758075</v>
+        <v>18.6682987398328</v>
       </c>
       <c r="H22">
-        <v>10.7600610390462</v>
+        <v>6.385331895804303</v>
       </c>
       <c r="I22">
-        <v>14.39077920414458</v>
+        <v>7.227064409621743</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.4529015597162</v>
+        <v>12.32234199010554</v>
       </c>
       <c r="O22">
-        <v>14.70801445675635</v>
+        <v>10.57808762032739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.2742024574928</v>
+        <v>24.69542745532493</v>
       </c>
       <c r="C23">
-        <v>10.76098985722705</v>
+        <v>16.92594871990112</v>
       </c>
       <c r="D23">
-        <v>4.121812191725577</v>
+        <v>5.837526335072311</v>
       </c>
       <c r="F23">
-        <v>16.84968693133644</v>
+        <v>15.73101065274724</v>
       </c>
       <c r="G23">
-        <v>16.20371726385156</v>
+        <v>18.31824672636791</v>
       </c>
       <c r="H23">
-        <v>10.77251200327616</v>
+        <v>6.378803663151738</v>
       </c>
       <c r="I23">
-        <v>14.42783713999382</v>
+        <v>7.307025653076342</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.44741035509898</v>
+        <v>12.2789669941234</v>
       </c>
       <c r="O23">
-        <v>14.71913194137468</v>
+        <v>10.49128310005696</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.30592154968094</v>
+        <v>22.96768851716161</v>
       </c>
       <c r="C24">
-        <v>10.20284218386042</v>
+        <v>15.83518809068276</v>
       </c>
       <c r="D24">
-        <v>3.945455847416567</v>
+        <v>5.461837761945234</v>
       </c>
       <c r="F24">
-        <v>16.77074824153017</v>
+        <v>14.85711369087801</v>
       </c>
       <c r="G24">
-        <v>16.03359066342212</v>
+        <v>17.06850750729477</v>
       </c>
       <c r="H24">
-        <v>10.82324966019024</v>
+        <v>6.366543938654455</v>
       </c>
       <c r="I24">
-        <v>14.57434317990651</v>
+        <v>7.632647886721116</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.42929708755401</v>
+        <v>12.12000654083759</v>
       </c>
       <c r="O24">
-        <v>14.76885734344384</v>
+        <v>10.18485000667319</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.16695921647151</v>
+        <v>20.94264705696386</v>
       </c>
       <c r="C25">
-        <v>9.55906913019013</v>
+        <v>14.56487592886916</v>
       </c>
       <c r="D25">
-        <v>3.743311530967234</v>
+        <v>5.024396583948691</v>
       </c>
       <c r="F25">
-        <v>16.70736121083802</v>
+        <v>13.92507534484493</v>
       </c>
       <c r="G25">
-        <v>15.87995654652285</v>
+        <v>15.72656839867816</v>
       </c>
       <c r="H25">
-        <v>10.88561148933628</v>
+        <v>6.378010454934311</v>
       </c>
       <c r="I25">
-        <v>14.74552047421583</v>
+        <v>8.026035938483551</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.41557381106028</v>
+        <v>11.9599123158929</v>
       </c>
       <c r="O25">
-        <v>14.83866595189259</v>
+        <v>9.901353646490575</v>
       </c>
     </row>
   </sheetData>
